--- a/data/pol_data.xlsx
+++ b/data/pol_data.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysbach/Dropbox/github/IshiguroM_etal_155140_2005UD/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E0D9E-5569-B74E-AE1C-4C0580BECAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075EAB2C-08B9-8B49-A19D-54A2490AB682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="-16860" windowWidth="26840" windowHeight="10440" xr2:uid="{67C0F8F1-C876-934C-A05D-C9421CF2DF90}"/>
+    <workbookView xWindow="31360" yWindow="-17620" windowWidth="26840" windowHeight="14360" xr2:uid="{67C0F8F1-C876-934C-A05D-C9421CF2DF90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1032</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5190" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5190" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -193,6 +197,9 @@
   <si>
     <t>1999Icar..140..464K</t>
   </si>
+  <si>
+    <t>P converted to Pr; value_err = rms of P, not CLT, not dPr</t>
+  </si>
 </sst>
 </file>
 
@@ -243,12 +250,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A4112A-6244-6B40-9205-D72864791F71}">
   <dimension ref="A1:Q1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="F887" sqref="F887"/>
+    <sheetView tabSelected="1" topLeftCell="B1002" workbookViewId="0">
+      <selection activeCell="E1010" sqref="E1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44487,7 +44495,7 @@
         <v>93.8</v>
       </c>
       <c r="H995" s="1">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="I995" s="1">
         <v>0.5</v>
@@ -45631,7 +45639,7 @@
         <v>111</v>
       </c>
       <c r="H1021" s="1">
-        <v>5.54</v>
+        <v>5.46</v>
       </c>
       <c r="I1021" s="1">
         <v>0.87</v>
@@ -45652,7 +45660,7 @@
         <v>153</v>
       </c>
       <c r="P1021" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -45675,7 +45683,7 @@
         <v>102.9</v>
       </c>
       <c r="H1022" s="1">
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="I1022" s="1">
         <v>0.36</v>
@@ -45696,7 +45704,7 @@
         <v>774</v>
       </c>
       <c r="P1022" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -45719,7 +45727,7 @@
         <v>78.5</v>
       </c>
       <c r="H1023" s="1">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="I1023" s="1">
         <v>0.21</v>
@@ -45740,7 +45748,7 @@
         <v>1069</v>
       </c>
       <c r="P1023" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -45763,7 +45771,7 @@
         <v>74.2</v>
       </c>
       <c r="H1024" s="1">
-        <v>4.96</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I1024" s="1">
         <v>0.14000000000000001</v>
@@ -45784,7 +45792,7 @@
         <v>1482</v>
       </c>
       <c r="P1024" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
@@ -46122,4 +46130,310 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02034805-8EE1-8B4A-82C4-8D79FFC9BEFC}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>6.6</v>
+      </c>
+      <c r="B1">
+        <v>-2</v>
+      </c>
+      <c r="C1" s="5">
+        <f>A1*COS(RADIANS(2*B1))</f>
+        <v>6.5839227317148392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6.3</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C24" si="0">A2*COS(RADIANS(2*B2))</f>
+        <v>6.2654879408201216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5.4</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3868458714030512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4.5</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.497258721585931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9981724810572872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2.7</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6983552329515588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2874003593470285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1.2</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1883216824898843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>-17</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0777488443215542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>-9</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.85595086466563819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>-5</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99026806874157036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>-12</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0049000034068611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26495963211660234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>0.4</v>
+      </c>
+      <c r="B16">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1368080573302676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>-0.3</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26488427785767804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>-0.3</v>
+      </c>
+      <c r="B18">
+        <v>67</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20839751113769919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19696155060244161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-1.2</v>
+      </c>
+      <c r="B20">
+        <v>81</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1412678195541841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>5.54</v>
+      </c>
+      <c r="B21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2189982884416235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>6.25</v>
+      </c>
+      <c r="B22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1512225498077617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>5.26</v>
+      </c>
+      <c r="B23">
+        <v>-3.6</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>5.218523328914153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>4.96</v>
+      </c>
+      <c r="B24">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8816102155274397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>